--- a/bots/crawl_ch/output/toilet_coop_2022-09-10.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-10.xlsx
@@ -531,36 +531,36 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Super Soft Premium Mandel feucht</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -569,42 +569,42 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1065,36 +1065,36 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1133,41 +1133,41 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.40/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1206,50 +1206,50 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6433417</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>144BLT</t>
+          <t>176BLT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1263,50 +1263,50 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>6433417</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>Plenty Fun Design extra Long</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>176BLT</t>
+          <t>144BLT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 3.20 Schweizer Franken</t>
+          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -2110,151 +2110,151 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-10 07:03:42</t>
+          <t>2022-09-10 20:57:55</t>
         </is>
       </c>
     </row>
